--- a/Code/Results/Cases/Case_4_250/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_250/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.02449359327155</v>
+        <v>1.04760794252374</v>
       </c>
       <c r="D2">
-        <v>1.043908803716294</v>
+        <v>1.056221041139173</v>
       </c>
       <c r="E2">
-        <v>1.042352355889437</v>
+        <v>1.061090968700482</v>
       </c>
       <c r="F2">
-        <v>1.049471629611706</v>
+        <v>1.068201649286932</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.059307962260005</v>
+        <v>1.047975993275452</v>
       </c>
       <c r="J2">
-        <v>1.045965596104079</v>
+        <v>1.052656106692502</v>
       </c>
       <c r="K2">
-        <v>1.054788522566645</v>
+        <v>1.058959347971665</v>
       </c>
       <c r="L2">
-        <v>1.053251579023458</v>
+        <v>1.063815972625804</v>
       </c>
       <c r="M2">
-        <v>1.060282227804189</v>
+        <v>1.070907465045288</v>
       </c>
       <c r="N2">
-        <v>1.018972600816501</v>
+        <v>1.021392693958611</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.028614911392718</v>
+        <v>1.04848370412149</v>
       </c>
       <c r="D3">
-        <v>1.04717089452629</v>
+        <v>1.056935287091577</v>
       </c>
       <c r="E3">
-        <v>1.046065125265377</v>
+        <v>1.06193200531932</v>
       </c>
       <c r="F3">
-        <v>1.053311115662839</v>
+        <v>1.069072287641119</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.060757097874903</v>
+        <v>1.04822298765742</v>
       </c>
       <c r="J3">
-        <v>1.048354777438886</v>
+        <v>1.053180772434348</v>
       </c>
       <c r="K3">
-        <v>1.057233797347727</v>
+        <v>1.05948744313225</v>
       </c>
       <c r="L3">
-        <v>1.056140662844758</v>
+        <v>1.064471495570295</v>
       </c>
       <c r="M3">
-        <v>1.063304453575152</v>
+        <v>1.071593899813898</v>
       </c>
       <c r="N3">
-        <v>1.019779125292865</v>
+        <v>1.021568660645228</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.031231688942013</v>
+        <v>1.049050961230855</v>
       </c>
       <c r="D4">
-        <v>1.049244268156277</v>
+        <v>1.057397909138205</v>
       </c>
       <c r="E4">
-        <v>1.048427479982422</v>
+        <v>1.06247712349885</v>
       </c>
       <c r="F4">
-        <v>1.055753993014692</v>
+        <v>1.069636586161568</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.061667279432553</v>
+        <v>1.048381754242625</v>
       </c>
       <c r="J4">
-        <v>1.049868874229806</v>
+        <v>1.053520177255426</v>
       </c>
       <c r="K4">
-        <v>1.058782579211736</v>
+        <v>1.059828938472189</v>
       </c>
       <c r="L4">
-        <v>1.057974555144451</v>
+        <v>1.06489592408991</v>
       </c>
       <c r="M4">
-        <v>1.065223047926179</v>
+        <v>1.072038361319626</v>
       </c>
       <c r="N4">
-        <v>1.020290118758391</v>
+        <v>1.021682449418525</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.032320197314004</v>
+        <v>1.049289573706918</v>
       </c>
       <c r="D5">
-        <v>1.050107213034067</v>
+        <v>1.057592503230044</v>
       </c>
       <c r="E5">
-        <v>1.049411321203723</v>
+        <v>1.06270650760954</v>
       </c>
       <c r="F5">
-        <v>1.056771344571009</v>
+        <v>1.069874039872678</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.062043474230083</v>
+        <v>1.048448246317252</v>
       </c>
       <c r="J5">
-        <v>1.050497978676925</v>
+        <v>1.05366284055673</v>
       </c>
       <c r="K5">
-        <v>1.059425882202055</v>
+        <v>1.059972449771577</v>
       </c>
       <c r="L5">
-        <v>1.058737256587726</v>
+        <v>1.065074414984182</v>
       </c>
       <c r="M5">
-        <v>1.066021020672244</v>
+        <v>1.072225281422237</v>
       </c>
       <c r="N5">
-        <v>1.020502402478167</v>
+        <v>1.02173026819002</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.032502294134504</v>
+        <v>1.049329645817521</v>
       </c>
       <c r="D6">
-        <v>1.05025160227253</v>
+        <v>1.057625182706503</v>
       </c>
       <c r="E6">
-        <v>1.049575975935191</v>
+        <v>1.062745034852313</v>
       </c>
       <c r="F6">
-        <v>1.056941606125116</v>
+        <v>1.069913922398155</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062106264960714</v>
+        <v>1.0484593957478</v>
       </c>
       <c r="J6">
-        <v>1.050603178690408</v>
+        <v>1.053686792999939</v>
       </c>
       <c r="K6">
-        <v>1.05953344382578</v>
+        <v>1.059996542785587</v>
       </c>
       <c r="L6">
-        <v>1.058864839555483</v>
+        <v>1.065104387934982</v>
       </c>
       <c r="M6">
-        <v>1.066154506331862</v>
+        <v>1.072256670102563</v>
       </c>
       <c r="N6">
-        <v>1.020537898921217</v>
+        <v>1.021738296101947</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.031246278669441</v>
+        <v>1.04905414904363</v>
       </c>
       <c r="D7">
-        <v>1.049255832726143</v>
+        <v>1.057400508892553</v>
       </c>
       <c r="E7">
-        <v>1.048440662246529</v>
+        <v>1.062480187692314</v>
       </c>
       <c r="F7">
-        <v>1.055767624372791</v>
+        <v>1.069639758157186</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.061672331311605</v>
+        <v>1.048382643709604</v>
       </c>
       <c r="J7">
-        <v>1.049877309249754</v>
+        <v>1.05352208361927</v>
       </c>
       <c r="K7">
-        <v>1.058791205454968</v>
+        <v>1.05983085628837</v>
       </c>
       <c r="L7">
-        <v>1.057984778569361</v>
+        <v>1.064898308855499</v>
       </c>
       <c r="M7">
-        <v>1.065233743961374</v>
+        <v>1.072040858687956</v>
       </c>
       <c r="N7">
-        <v>1.020292965189132</v>
+        <v>1.021683088446691</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.025896999081288</v>
+        <v>1.047903789121998</v>
       </c>
       <c r="D8">
-        <v>1.045019147981302</v>
+        <v>1.056462328247826</v>
       </c>
       <c r="E8">
-        <v>1.043615580099167</v>
+        <v>1.061375011245237</v>
       </c>
       <c r="F8">
-        <v>1.050777989718106</v>
+        <v>1.06849569045597</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05980348577751</v>
+        <v>1.04805968423316</v>
       </c>
       <c r="J8">
-        <v>1.046779755781475</v>
+        <v>1.05283343765465</v>
       </c>
       <c r="K8">
-        <v>1.055621974507882</v>
+        <v>1.059137864488508</v>
       </c>
       <c r="L8">
-        <v>1.054235465339431</v>
+        <v>1.064037454707204</v>
       </c>
       <c r="M8">
-        <v>1.061311416151071</v>
+        <v>1.071139387466158</v>
       </c>
       <c r="N8">
-        <v>1.019247464114144</v>
+        <v>1.021452177661503</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.01606991613971</v>
+        <v>1.045881220601311</v>
       </c>
       <c r="D9">
-        <v>1.037254908468417</v>
+        <v>1.05481270871235</v>
       </c>
       <c r="E9">
-        <v>1.034792408796626</v>
+        <v>1.059434604553497</v>
       </c>
       <c r="F9">
-        <v>1.041653072264951</v>
+        <v>1.066486953985246</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056293079030091</v>
+        <v>1.047482539601514</v>
       </c>
       <c r="J9">
-        <v>1.041067693003299</v>
+        <v>1.051619326002321</v>
       </c>
       <c r="K9">
-        <v>1.049771144053861</v>
+        <v>1.05791511405284</v>
       </c>
       <c r="L9">
-        <v>1.047345142649662</v>
+        <v>1.062522584085437</v>
       </c>
       <c r="M9">
-        <v>1.054104664735243</v>
+        <v>1.06955318478499</v>
       </c>
       <c r="N9">
-        <v>1.017318640732205</v>
+        <v>1.021044740657039</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.009222205256652</v>
+        <v>1.044535961998785</v>
       </c>
       <c r="D10">
-        <v>1.031860137629162</v>
+        <v>1.053715464489851</v>
       </c>
       <c r="E10">
-        <v>1.028674033206582</v>
+        <v>1.058145846466083</v>
       </c>
       <c r="F10">
-        <v>1.035324854738418</v>
+        <v>1.065152781134358</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.05379697942565</v>
+        <v>1.047092410014751</v>
       </c>
       <c r="J10">
-        <v>1.037074645371394</v>
+        <v>1.050809565070384</v>
       </c>
       <c r="K10">
-        <v>1.045677026596725</v>
+        <v>1.057098939362692</v>
       </c>
       <c r="L10">
-        <v>1.042544175175816</v>
+        <v>1.061514142772185</v>
       </c>
       <c r="M10">
-        <v>1.049084312620376</v>
+        <v>1.06849735475917</v>
       </c>
       <c r="N10">
-        <v>1.015969899984242</v>
+        <v>1.020772777687282</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.00618038011315</v>
+        <v>1.043954208336187</v>
       </c>
       <c r="D11">
-        <v>1.029468038274572</v>
+        <v>1.053240959882479</v>
       </c>
       <c r="E11">
-        <v>1.025963752008807</v>
+        <v>1.05758897108425</v>
       </c>
       <c r="F11">
-        <v>1.03252147146868</v>
+        <v>1.064576274096121</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.052676842284078</v>
+        <v>1.046922216159624</v>
       </c>
       <c r="J11">
-        <v>1.035298289271</v>
+        <v>1.0504588605781</v>
       </c>
       <c r="K11">
-        <v>1.04385483484757</v>
+        <v>1.056745303426813</v>
       </c>
       <c r="L11">
-        <v>1.040412095999016</v>
+        <v>1.061077843532347</v>
       </c>
       <c r="M11">
-        <v>1.046855079971437</v>
+        <v>1.068040575973497</v>
       </c>
       <c r="N11">
-        <v>1.01536984803637</v>
+        <v>1.020654940062849</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.005038399669958</v>
+        <v>1.043738233563501</v>
       </c>
       <c r="D12">
-        <v>1.028570686606676</v>
+        <v>1.05306480096789</v>
       </c>
       <c r="E12">
-        <v>1.024947423184875</v>
+        <v>1.057382299596038</v>
       </c>
       <c r="F12">
-        <v>1.031470207647293</v>
+        <v>1.064362315578209</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052254654281678</v>
+        <v>1.046858809242186</v>
       </c>
       <c r="J12">
-        <v>1.034631045525918</v>
+        <v>1.050328583567737</v>
       </c>
       <c r="K12">
-        <v>1.043170250766679</v>
+        <v>1.05661391445737</v>
       </c>
       <c r="L12">
-        <v>1.039611784651969</v>
+        <v>1.060915838450102</v>
       </c>
       <c r="M12">
-        <v>1.046018342947721</v>
+        <v>1.067870969971796</v>
       </c>
       <c r="N12">
-        <v>1.015144450023522</v>
+        <v>1.020611158970483</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.005283916200077</v>
+        <v>1.043784555683692</v>
       </c>
       <c r="D13">
-        <v>1.028763577152742</v>
+        <v>1.053102583407656</v>
       </c>
       <c r="E13">
-        <v>1.025165871510924</v>
+        <v>1.057426623302264</v>
       </c>
       <c r="F13">
-        <v>1.031696165884177</v>
+        <v>1.064408202148122</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052345495519192</v>
+        <v>1.046872418797497</v>
       </c>
       <c r="J13">
-        <v>1.034774512865498</v>
+        <v>1.050356528850961</v>
       </c>
       <c r="K13">
-        <v>1.043317451978879</v>
+        <v>1.05664209930315</v>
       </c>
       <c r="L13">
-        <v>1.039783838669807</v>
+        <v>1.060950586538622</v>
       </c>
       <c r="M13">
-        <v>1.04619822595492</v>
+        <v>1.067907348206305</v>
       </c>
       <c r="N13">
-        <v>1.0151929140502</v>
+        <v>1.020620550651856</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.006086234227564</v>
+        <v>1.043936353451261</v>
       </c>
       <c r="D14">
-        <v>1.029394045138714</v>
+        <v>1.053226396620246</v>
       </c>
       <c r="E14">
-        <v>1.025879940669062</v>
+        <v>1.05757188393736</v>
       </c>
       <c r="F14">
-        <v>1.032434779684841</v>
+        <v>1.064558584497956</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.052642070201947</v>
+        <v>1.046916978782301</v>
       </c>
       <c r="J14">
-        <v>1.035243288064576</v>
+        <v>1.050448092031844</v>
       </c>
       <c r="K14">
-        <v>1.043798406729782</v>
+        <v>1.056734443436232</v>
       </c>
       <c r="L14">
-        <v>1.040346114790008</v>
+        <v>1.061064450993531</v>
       </c>
       <c r="M14">
-        <v>1.046786094796275</v>
+        <v>1.068026555015527</v>
       </c>
       <c r="N14">
-        <v>1.015351268424916</v>
+        <v>1.020651321324935</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.006578945892277</v>
+        <v>1.044029896273165</v>
       </c>
       <c r="D15">
-        <v>1.029781316647086</v>
+        <v>1.05330269442992</v>
       </c>
       <c r="E15">
-        <v>1.026318615024842</v>
+        <v>1.0576614072917</v>
       </c>
       <c r="F15">
-        <v>1.032888529558296</v>
+        <v>1.06465126417929</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.052823982195793</v>
+        <v>1.046944408592027</v>
       </c>
       <c r="J15">
-        <v>1.035531122213029</v>
+        <v>1.05050450587303</v>
       </c>
       <c r="K15">
-        <v>1.044093703258399</v>
+        <v>1.056791335390616</v>
       </c>
       <c r="L15">
-        <v>1.04069143229315</v>
+        <v>1.061134614089539</v>
       </c>
       <c r="M15">
-        <v>1.047147135518113</v>
+        <v>1.068100010522309</v>
       </c>
       <c r="N15">
-        <v>1.015448499746814</v>
+        <v>1.020670278714275</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.009422415669682</v>
+        <v>1.044574587043344</v>
       </c>
       <c r="D16">
-        <v>1.032017678333844</v>
+        <v>1.053746968779545</v>
       </c>
       <c r="E16">
-        <v>1.028852583184245</v>
+        <v>1.0581828291527</v>
       </c>
       <c r="F16">
-        <v>1.03550953504508</v>
+        <v>1.065191067413713</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053870473114654</v>
+        <v>1.047103678627472</v>
       </c>
       <c r="J16">
-        <v>1.037191512532317</v>
+        <v>1.050832838741423</v>
       </c>
       <c r="K16">
-        <v>1.045796891757785</v>
+        <v>1.057122404341336</v>
       </c>
       <c r="L16">
-        <v>1.042684522110329</v>
+        <v>1.06154310627451</v>
       </c>
       <c r="M16">
-        <v>1.049231060634708</v>
+        <v>1.068527678272269</v>
       </c>
       <c r="N16">
-        <v>1.016009376946434</v>
+        <v>1.020780596622014</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.011185107286607</v>
+        <v>1.044916459565278</v>
       </c>
       <c r="D17">
-        <v>1.033405195921882</v>
+        <v>1.054025814670334</v>
       </c>
       <c r="E17">
-        <v>1.030425439637406</v>
+        <v>1.058510216541843</v>
       </c>
       <c r="F17">
-        <v>1.037136376997168</v>
+        <v>1.065529993884987</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.05451623835928</v>
+        <v>1.047203246309681</v>
       </c>
       <c r="J17">
-        <v>1.038220141706721</v>
+        <v>1.05103877464668</v>
       </c>
       <c r="K17">
-        <v>1.046851809870728</v>
+        <v>1.057330015281929</v>
       </c>
       <c r="L17">
-        <v>1.04392023291266</v>
+        <v>1.061799440684347</v>
       </c>
       <c r="M17">
-        <v>1.05052316231207</v>
+        <v>1.068796051790232</v>
       </c>
       <c r="N17">
-        <v>1.016356836123033</v>
+        <v>1.020849776134779</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.012205894375731</v>
+        <v>1.045115940502437</v>
       </c>
       <c r="D18">
-        <v>1.034209123235959</v>
+        <v>1.054188519445208</v>
       </c>
       <c r="E18">
-        <v>1.031337007710123</v>
+        <v>1.058701288392082</v>
       </c>
       <c r="F18">
-        <v>1.038079219007144</v>
+        <v>1.06572779949014</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054889124588463</v>
+        <v>1.047261200334188</v>
       </c>
       <c r="J18">
-        <v>1.038815578237952</v>
+        <v>1.051158886486391</v>
       </c>
       <c r="K18">
-        <v>1.04746238065563</v>
+        <v>1.057451089253552</v>
       </c>
       <c r="L18">
-        <v>1.044635892135457</v>
+        <v>1.061948991089864</v>
       </c>
       <c r="M18">
-        <v>1.051271506121062</v>
+        <v>1.068952628265939</v>
       </c>
       <c r="N18">
-        <v>1.016557962960497</v>
+        <v>1.020890120024501</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.012552724981992</v>
+        <v>1.045183970597164</v>
       </c>
       <c r="D19">
-        <v>1.034482339111228</v>
+        <v>1.05424400747182</v>
       </c>
       <c r="E19">
-        <v>1.031646849336327</v>
+        <v>1.058766457954653</v>
       </c>
       <c r="F19">
-        <v>1.038399688269158</v>
+        <v>1.06579526563103</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.055015634657208</v>
+        <v>1.047280940422863</v>
       </c>
       <c r="J19">
-        <v>1.03901784493196</v>
+        <v>1.051199840281644</v>
       </c>
       <c r="K19">
-        <v>1.047669773986602</v>
+        <v>1.057492368583155</v>
       </c>
       <c r="L19">
-        <v>1.044879057425423</v>
+        <v>1.061999989786678</v>
       </c>
       <c r="M19">
-        <v>1.051525781276052</v>
+        <v>1.069006023323938</v>
       </c>
       <c r="N19">
-        <v>1.016626283774299</v>
+        <v>1.020903874988126</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.010996752661454</v>
+        <v>1.044879772371918</v>
       </c>
       <c r="D20">
-        <v>1.033256888467825</v>
+        <v>1.053995891063146</v>
       </c>
       <c r="E20">
-        <v>1.030257295524817</v>
+        <v>1.058475079342481</v>
       </c>
       <c r="F20">
-        <v>1.03696246309369</v>
+        <v>1.065493618319612</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054447346107315</v>
+        <v>1.047192576265809</v>
       </c>
       <c r="J20">
-        <v>1.03811025189612</v>
+        <v>1.051016680397868</v>
       </c>
       <c r="K20">
-        <v>1.046739120181745</v>
+        <v>1.057307742857001</v>
       </c>
       <c r="L20">
-        <v>1.043788183957116</v>
+        <v>1.061771934809929</v>
       </c>
       <c r="M20">
-        <v>1.050385084687472</v>
+        <v>1.068767253833437</v>
       </c>
       <c r="N20">
-        <v>1.016319717074456</v>
+        <v>1.020842354584756</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.00585031077322</v>
+        <v>1.043891649621541</v>
       </c>
       <c r="D21">
-        <v>1.02920863471482</v>
+        <v>1.053189934128249</v>
       </c>
       <c r="E21">
-        <v>1.025669934104621</v>
+        <v>1.05752910340569</v>
       </c>
       <c r="F21">
-        <v>1.032217555208404</v>
+        <v>1.06451429560939</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.052554907049392</v>
+        <v>1.046903862198246</v>
       </c>
       <c r="J21">
-        <v>1.035105453062318</v>
+        <v>1.050421129216883</v>
       </c>
       <c r="K21">
-        <v>1.043656993876899</v>
+        <v>1.056707251287056</v>
       </c>
       <c r="L21">
-        <v>1.040180772369827</v>
+        <v>1.061030919195546</v>
       </c>
       <c r="M21">
-        <v>1.046613225421865</v>
+        <v>1.067991449858484</v>
       </c>
       <c r="N21">
-        <v>1.015304707206397</v>
+        <v>1.0206422604274</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.002544150306921</v>
+        <v>1.043271040457426</v>
       </c>
       <c r="D22">
-        <v>1.026612101468622</v>
+        <v>1.052683737206308</v>
       </c>
       <c r="E22">
-        <v>1.022729837477173</v>
+        <v>1.056935354695688</v>
       </c>
       <c r="F22">
-        <v>1.029176353204243</v>
+        <v>1.063899609652498</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051329536325175</v>
+        <v>1.046721241097659</v>
       </c>
       <c r="J22">
-        <v>1.033173082639759</v>
+        <v>1.050046626740025</v>
       </c>
       <c r="K22">
-        <v>1.041674180592809</v>
+        <v>1.056329509038512</v>
       </c>
       <c r="L22">
-        <v>1.037864071034244</v>
+        <v>1.060565337285217</v>
       </c>
       <c r="M22">
-        <v>1.044191162894381</v>
+        <v>1.067504030429796</v>
       </c>
       <c r="N22">
-        <v>1.014651941142916</v>
+        <v>1.020516390145042</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.004303685495641</v>
+        <v>1.043599973809956</v>
       </c>
       <c r="D23">
-        <v>1.02799356472309</v>
+        <v>1.052952030010497</v>
       </c>
       <c r="E23">
-        <v>1.024293887935837</v>
+        <v>1.05725001448562</v>
       </c>
       <c r="F23">
-        <v>1.030794201530076</v>
+        <v>1.064225365889819</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.051982570072993</v>
+        <v>1.046818155555677</v>
       </c>
       <c r="J23">
-        <v>1.034201667224225</v>
+        <v>1.050245162488127</v>
       </c>
       <c r="K23">
-        <v>1.042729680042461</v>
+        <v>1.056529774882516</v>
       </c>
       <c r="L23">
-        <v>1.039096930764553</v>
+        <v>1.060812119877681</v>
       </c>
       <c r="M23">
-        <v>1.045480067953891</v>
+        <v>1.067762386132666</v>
       </c>
       <c r="N23">
-        <v>1.014999403535587</v>
+        <v>1.020583122199759</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.011081884714663</v>
+        <v>1.044896349511622</v>
       </c>
       <c r="D24">
-        <v>1.033323918846014</v>
+        <v>1.054009412072065</v>
       </c>
       <c r="E24">
-        <v>1.030333290665479</v>
+        <v>1.058490955983554</v>
       </c>
       <c r="F24">
-        <v>1.037041066017397</v>
+        <v>1.065510054515088</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054478487209347</v>
+        <v>1.047197397976757</v>
       </c>
       <c r="J24">
-        <v>1.038159920395629</v>
+        <v>1.051026663859911</v>
       </c>
       <c r="K24">
-        <v>1.046790054442472</v>
+        <v>1.057317806875172</v>
       </c>
       <c r="L24">
-        <v>1.043847866961271</v>
+        <v>1.061784363422991</v>
       </c>
       <c r="M24">
-        <v>1.050447492427143</v>
+        <v>1.068780266270984</v>
       </c>
       <c r="N24">
-        <v>1.016336494327122</v>
+        <v>1.020845708086516</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.01866062627166</v>
+        <v>1.046403559387912</v>
       </c>
       <c r="D25">
-        <v>1.039299315712365</v>
+        <v>1.055238741112261</v>
       </c>
       <c r="E25">
-        <v>1.037113472058356</v>
+        <v>1.059935399508989</v>
       </c>
       <c r="F25">
-        <v>1.044053615780869</v>
+        <v>1.067005389640856</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057227319286327</v>
+        <v>1.0476326945101</v>
       </c>
       <c r="J25">
-        <v>1.042575902017909</v>
+        <v>1.051933270346727</v>
       </c>
       <c r="K25">
-        <v>1.051316722744427</v>
+        <v>1.058231407460772</v>
       </c>
       <c r="L25">
-        <v>1.049161727372445</v>
+        <v>1.062913961112184</v>
       </c>
       <c r="M25">
-        <v>1.056004489342354</v>
+        <v>1.069962973919996</v>
       </c>
       <c r="N25">
-        <v>1.017828006683102</v>
+        <v>1.021150134462304</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_250/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_250/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.04760794252374</v>
+        <v>1.024493593271551</v>
       </c>
       <c r="D2">
-        <v>1.056221041139173</v>
+        <v>1.043908803716294</v>
       </c>
       <c r="E2">
-        <v>1.061090968700482</v>
+        <v>1.042352355889437</v>
       </c>
       <c r="F2">
-        <v>1.068201649286932</v>
+        <v>1.049471629611707</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047975993275452</v>
+        <v>1.059307962260006</v>
       </c>
       <c r="J2">
-        <v>1.052656106692502</v>
+        <v>1.04596559610408</v>
       </c>
       <c r="K2">
-        <v>1.058959347971665</v>
+        <v>1.054788522566646</v>
       </c>
       <c r="L2">
-        <v>1.063815972625804</v>
+        <v>1.053251579023459</v>
       </c>
       <c r="M2">
-        <v>1.070907465045288</v>
+        <v>1.06028222780419</v>
       </c>
       <c r="N2">
-        <v>1.021392693958611</v>
+        <v>1.018972600816501</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.04848370412149</v>
+        <v>1.028614911392717</v>
       </c>
       <c r="D3">
-        <v>1.056935287091577</v>
+        <v>1.04717089452629</v>
       </c>
       <c r="E3">
-        <v>1.06193200531932</v>
+        <v>1.046065125265376</v>
       </c>
       <c r="F3">
-        <v>1.069072287641119</v>
+        <v>1.053311115662839</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04822298765742</v>
+        <v>1.060757097874903</v>
       </c>
       <c r="J3">
-        <v>1.053180772434348</v>
+        <v>1.048354777438886</v>
       </c>
       <c r="K3">
-        <v>1.05948744313225</v>
+        <v>1.057233797347727</v>
       </c>
       <c r="L3">
-        <v>1.064471495570295</v>
+        <v>1.056140662844757</v>
       </c>
       <c r="M3">
-        <v>1.071593899813898</v>
+        <v>1.063304453575152</v>
       </c>
       <c r="N3">
-        <v>1.021568660645228</v>
+        <v>1.019779125292865</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.049050961230855</v>
+        <v>1.031231688942013</v>
       </c>
       <c r="D4">
-        <v>1.057397909138205</v>
+        <v>1.049244268156276</v>
       </c>
       <c r="E4">
-        <v>1.06247712349885</v>
+        <v>1.048427479982421</v>
       </c>
       <c r="F4">
-        <v>1.069636586161568</v>
+        <v>1.055753993014692</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048381754242625</v>
+        <v>1.061667279432552</v>
       </c>
       <c r="J4">
-        <v>1.053520177255426</v>
+        <v>1.049868874229805</v>
       </c>
       <c r="K4">
-        <v>1.059828938472189</v>
+        <v>1.058782579211735</v>
       </c>
       <c r="L4">
-        <v>1.06489592408991</v>
+        <v>1.05797455514445</v>
       </c>
       <c r="M4">
-        <v>1.072038361319626</v>
+        <v>1.065223047926179</v>
       </c>
       <c r="N4">
-        <v>1.021682449418525</v>
+        <v>1.020290118758391</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.049289573706918</v>
+        <v>1.032320197314003</v>
       </c>
       <c r="D5">
-        <v>1.057592503230044</v>
+        <v>1.050107213034066</v>
       </c>
       <c r="E5">
-        <v>1.06270650760954</v>
+        <v>1.049411321203721</v>
       </c>
       <c r="F5">
-        <v>1.069874039872678</v>
+        <v>1.056771344571008</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048448246317252</v>
+        <v>1.062043474230081</v>
       </c>
       <c r="J5">
-        <v>1.05366284055673</v>
+        <v>1.050497978676924</v>
       </c>
       <c r="K5">
-        <v>1.059972449771577</v>
+        <v>1.059425882202054</v>
       </c>
       <c r="L5">
-        <v>1.065074414984182</v>
+        <v>1.058737256587724</v>
       </c>
       <c r="M5">
-        <v>1.072225281422237</v>
+        <v>1.066021020672242</v>
       </c>
       <c r="N5">
-        <v>1.02173026819002</v>
+        <v>1.020502402478167</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.049329645817521</v>
+        <v>1.032502294134504</v>
       </c>
       <c r="D6">
-        <v>1.057625182706503</v>
+        <v>1.05025160227253</v>
       </c>
       <c r="E6">
-        <v>1.062745034852313</v>
+        <v>1.049575975935191</v>
       </c>
       <c r="F6">
-        <v>1.069913922398155</v>
+        <v>1.056941606125116</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0484593957478</v>
+        <v>1.062106264960714</v>
       </c>
       <c r="J6">
-        <v>1.053686792999939</v>
+        <v>1.050603178690408</v>
       </c>
       <c r="K6">
-        <v>1.059996542785587</v>
+        <v>1.05953344382578</v>
       </c>
       <c r="L6">
-        <v>1.065104387934982</v>
+        <v>1.058864839555483</v>
       </c>
       <c r="M6">
-        <v>1.072256670102563</v>
+        <v>1.066154506331862</v>
       </c>
       <c r="N6">
-        <v>1.021738296101947</v>
+        <v>1.020537898921217</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04905414904363</v>
+        <v>1.03124627866944</v>
       </c>
       <c r="D7">
-        <v>1.057400508892553</v>
+        <v>1.049255832726141</v>
       </c>
       <c r="E7">
-        <v>1.062480187692314</v>
+        <v>1.048440662246528</v>
       </c>
       <c r="F7">
-        <v>1.069639758157186</v>
+        <v>1.05576762437279</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048382643709604</v>
+        <v>1.061672331311604</v>
       </c>
       <c r="J7">
-        <v>1.05352208361927</v>
+        <v>1.049877309249753</v>
       </c>
       <c r="K7">
-        <v>1.05983085628837</v>
+        <v>1.058791205454968</v>
       </c>
       <c r="L7">
-        <v>1.064898308855499</v>
+        <v>1.05798477856936</v>
       </c>
       <c r="M7">
-        <v>1.072040858687956</v>
+        <v>1.065233743961373</v>
       </c>
       <c r="N7">
-        <v>1.021683088446691</v>
+        <v>1.020292965189131</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.047903789121998</v>
+        <v>1.025896999081287</v>
       </c>
       <c r="D8">
-        <v>1.056462328247826</v>
+        <v>1.0450191479813</v>
       </c>
       <c r="E8">
-        <v>1.061375011245237</v>
+        <v>1.043615580099165</v>
       </c>
       <c r="F8">
-        <v>1.06849569045597</v>
+        <v>1.050777989718105</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04805968423316</v>
+        <v>1.059803485777508</v>
       </c>
       <c r="J8">
-        <v>1.05283343765465</v>
+        <v>1.046779755781474</v>
       </c>
       <c r="K8">
-        <v>1.059137864488508</v>
+        <v>1.055621974507881</v>
       </c>
       <c r="L8">
-        <v>1.064037454707204</v>
+        <v>1.054235465339429</v>
       </c>
       <c r="M8">
-        <v>1.071139387466158</v>
+        <v>1.061311416151069</v>
       </c>
       <c r="N8">
-        <v>1.021452177661503</v>
+        <v>1.019247464114143</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.045881220601311</v>
+        <v>1.01606991613971</v>
       </c>
       <c r="D9">
-        <v>1.05481270871235</v>
+        <v>1.037254908468416</v>
       </c>
       <c r="E9">
-        <v>1.059434604553497</v>
+        <v>1.034792408796626</v>
       </c>
       <c r="F9">
-        <v>1.066486953985246</v>
+        <v>1.04165307226495</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047482539601514</v>
+        <v>1.056293079030091</v>
       </c>
       <c r="J9">
-        <v>1.051619326002321</v>
+        <v>1.041067693003299</v>
       </c>
       <c r="K9">
-        <v>1.05791511405284</v>
+        <v>1.049771144053861</v>
       </c>
       <c r="L9">
-        <v>1.062522584085437</v>
+        <v>1.047345142649661</v>
       </c>
       <c r="M9">
-        <v>1.06955318478499</v>
+        <v>1.054104664735243</v>
       </c>
       <c r="N9">
-        <v>1.021044740657039</v>
+        <v>1.017318640732205</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.044535961998785</v>
+        <v>1.009222205256653</v>
       </c>
       <c r="D10">
-        <v>1.053715464489851</v>
+        <v>1.031860137629163</v>
       </c>
       <c r="E10">
-        <v>1.058145846466083</v>
+        <v>1.028674033206584</v>
       </c>
       <c r="F10">
-        <v>1.065152781134358</v>
+        <v>1.03532485473842</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047092410014751</v>
+        <v>1.053796979425651</v>
       </c>
       <c r="J10">
-        <v>1.050809565070384</v>
+        <v>1.037074645371395</v>
       </c>
       <c r="K10">
-        <v>1.057098939362692</v>
+        <v>1.045677026596725</v>
       </c>
       <c r="L10">
-        <v>1.061514142772185</v>
+        <v>1.042544175175818</v>
       </c>
       <c r="M10">
-        <v>1.06849735475917</v>
+        <v>1.049084312620378</v>
       </c>
       <c r="N10">
-        <v>1.020772777687282</v>
+        <v>1.015969899984242</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.043954208336187</v>
+        <v>1.00618038011315</v>
       </c>
       <c r="D11">
-        <v>1.053240959882479</v>
+        <v>1.029468038274572</v>
       </c>
       <c r="E11">
-        <v>1.05758897108425</v>
+        <v>1.025963752008807</v>
       </c>
       <c r="F11">
-        <v>1.064576274096121</v>
+        <v>1.03252147146868</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046922216159624</v>
+        <v>1.052676842284078</v>
       </c>
       <c r="J11">
-        <v>1.0504588605781</v>
+        <v>1.035298289271</v>
       </c>
       <c r="K11">
-        <v>1.056745303426813</v>
+        <v>1.04385483484757</v>
       </c>
       <c r="L11">
-        <v>1.061077843532347</v>
+        <v>1.040412095999016</v>
       </c>
       <c r="M11">
-        <v>1.068040575973497</v>
+        <v>1.046855079971438</v>
       </c>
       <c r="N11">
-        <v>1.020654940062849</v>
+        <v>1.01536984803637</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.043738233563501</v>
+        <v>1.005038399669958</v>
       </c>
       <c r="D12">
-        <v>1.05306480096789</v>
+        <v>1.028570686606676</v>
       </c>
       <c r="E12">
-        <v>1.057382299596038</v>
+        <v>1.024947423184876</v>
       </c>
       <c r="F12">
-        <v>1.064362315578209</v>
+        <v>1.031470207647294</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046858809242186</v>
+        <v>1.052254654281679</v>
       </c>
       <c r="J12">
-        <v>1.050328583567737</v>
+        <v>1.034631045525918</v>
       </c>
       <c r="K12">
-        <v>1.05661391445737</v>
+        <v>1.04317025076668</v>
       </c>
       <c r="L12">
-        <v>1.060915838450102</v>
+        <v>1.03961178465197</v>
       </c>
       <c r="M12">
-        <v>1.067870969971796</v>
+        <v>1.046018342947722</v>
       </c>
       <c r="N12">
-        <v>1.020611158970483</v>
+        <v>1.015144450023523</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.043784555683692</v>
+        <v>1.005283916200076</v>
       </c>
       <c r="D13">
-        <v>1.053102583407656</v>
+        <v>1.028763577152741</v>
       </c>
       <c r="E13">
-        <v>1.057426623302264</v>
+        <v>1.025165871510924</v>
       </c>
       <c r="F13">
-        <v>1.064408202148122</v>
+        <v>1.031696165884177</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046872418797497</v>
+        <v>1.052345495519192</v>
       </c>
       <c r="J13">
-        <v>1.050356528850961</v>
+        <v>1.034774512865497</v>
       </c>
       <c r="K13">
-        <v>1.05664209930315</v>
+        <v>1.043317451978879</v>
       </c>
       <c r="L13">
-        <v>1.060950586538622</v>
+        <v>1.039783838669806</v>
       </c>
       <c r="M13">
-        <v>1.067907348206305</v>
+        <v>1.046198225954919</v>
       </c>
       <c r="N13">
-        <v>1.020620550651856</v>
+        <v>1.0151929140502</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.043936353451261</v>
+        <v>1.006086234227563</v>
       </c>
       <c r="D14">
-        <v>1.053226396620246</v>
+        <v>1.029394045138713</v>
       </c>
       <c r="E14">
-        <v>1.05757188393736</v>
+        <v>1.025879940669062</v>
       </c>
       <c r="F14">
-        <v>1.064558584497956</v>
+        <v>1.032434779684841</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046916978782301</v>
+        <v>1.052642070201947</v>
       </c>
       <c r="J14">
-        <v>1.050448092031844</v>
+        <v>1.035243288064576</v>
       </c>
       <c r="K14">
-        <v>1.056734443436232</v>
+        <v>1.043798406729781</v>
       </c>
       <c r="L14">
-        <v>1.061064450993531</v>
+        <v>1.040346114790007</v>
       </c>
       <c r="M14">
-        <v>1.068026555015527</v>
+        <v>1.046786094796275</v>
       </c>
       <c r="N14">
-        <v>1.020651321324935</v>
+        <v>1.015351268424916</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.044029896273165</v>
+        <v>1.006578945892277</v>
       </c>
       <c r="D15">
-        <v>1.05330269442992</v>
+        <v>1.029781316647086</v>
       </c>
       <c r="E15">
-        <v>1.0576614072917</v>
+        <v>1.026318615024842</v>
       </c>
       <c r="F15">
-        <v>1.06465126417929</v>
+        <v>1.032888529558295</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046944408592027</v>
+        <v>1.052823982195793</v>
       </c>
       <c r="J15">
-        <v>1.05050450587303</v>
+        <v>1.035531122213029</v>
       </c>
       <c r="K15">
-        <v>1.056791335390616</v>
+        <v>1.044093703258399</v>
       </c>
       <c r="L15">
-        <v>1.061134614089539</v>
+        <v>1.04069143229315</v>
       </c>
       <c r="M15">
-        <v>1.068100010522309</v>
+        <v>1.047147135518113</v>
       </c>
       <c r="N15">
-        <v>1.020670278714275</v>
+        <v>1.015448499746814</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.044574587043344</v>
+        <v>1.009422415669682</v>
       </c>
       <c r="D16">
-        <v>1.053746968779545</v>
+        <v>1.032017678333843</v>
       </c>
       <c r="E16">
-        <v>1.0581828291527</v>
+        <v>1.028852583184244</v>
       </c>
       <c r="F16">
-        <v>1.065191067413713</v>
+        <v>1.03550953504508</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047103678627472</v>
+        <v>1.053870473114654</v>
       </c>
       <c r="J16">
-        <v>1.050832838741423</v>
+        <v>1.037191512532316</v>
       </c>
       <c r="K16">
-        <v>1.057122404341336</v>
+        <v>1.045796891757785</v>
       </c>
       <c r="L16">
-        <v>1.06154310627451</v>
+        <v>1.042684522110328</v>
       </c>
       <c r="M16">
-        <v>1.068527678272269</v>
+        <v>1.049231060634707</v>
       </c>
       <c r="N16">
-        <v>1.020780596622014</v>
+        <v>1.016009376946434</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.044916459565278</v>
+        <v>1.011185107286607</v>
       </c>
       <c r="D17">
-        <v>1.054025814670334</v>
+        <v>1.033405195921882</v>
       </c>
       <c r="E17">
-        <v>1.058510216541843</v>
+        <v>1.030425439637406</v>
       </c>
       <c r="F17">
-        <v>1.065529993884987</v>
+        <v>1.037136376997168</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047203246309681</v>
+        <v>1.05451623835928</v>
       </c>
       <c r="J17">
-        <v>1.05103877464668</v>
+        <v>1.038220141706721</v>
       </c>
       <c r="K17">
-        <v>1.057330015281929</v>
+        <v>1.046851809870728</v>
       </c>
       <c r="L17">
-        <v>1.061799440684347</v>
+        <v>1.04392023291266</v>
       </c>
       <c r="M17">
-        <v>1.068796051790232</v>
+        <v>1.050523162312069</v>
       </c>
       <c r="N17">
-        <v>1.020849776134779</v>
+        <v>1.016356836123033</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.045115940502437</v>
+        <v>1.012205894375731</v>
       </c>
       <c r="D18">
-        <v>1.054188519445208</v>
+        <v>1.03420912323596</v>
       </c>
       <c r="E18">
-        <v>1.058701288392082</v>
+        <v>1.031337007710124</v>
       </c>
       <c r="F18">
-        <v>1.06572779949014</v>
+        <v>1.038079219007144</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047261200334188</v>
+        <v>1.054889124588463</v>
       </c>
       <c r="J18">
-        <v>1.051158886486391</v>
+        <v>1.038815578237953</v>
       </c>
       <c r="K18">
-        <v>1.057451089253552</v>
+        <v>1.047462380655631</v>
       </c>
       <c r="L18">
-        <v>1.061948991089864</v>
+        <v>1.044635892135458</v>
       </c>
       <c r="M18">
-        <v>1.068952628265939</v>
+        <v>1.051271506121063</v>
       </c>
       <c r="N18">
-        <v>1.020890120024501</v>
+        <v>1.016557962960497</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.045183970597164</v>
+        <v>1.012552724981992</v>
       </c>
       <c r="D19">
-        <v>1.05424400747182</v>
+        <v>1.034482339111228</v>
       </c>
       <c r="E19">
-        <v>1.058766457954653</v>
+        <v>1.031646849336327</v>
       </c>
       <c r="F19">
-        <v>1.06579526563103</v>
+        <v>1.038399688269158</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047280940422863</v>
+        <v>1.055015634657208</v>
       </c>
       <c r="J19">
-        <v>1.051199840281644</v>
+        <v>1.03901784493196</v>
       </c>
       <c r="K19">
-        <v>1.057492368583155</v>
+        <v>1.047669773986602</v>
       </c>
       <c r="L19">
-        <v>1.061999989786678</v>
+        <v>1.044879057425423</v>
       </c>
       <c r="M19">
-        <v>1.069006023323938</v>
+        <v>1.051525781276053</v>
       </c>
       <c r="N19">
-        <v>1.020903874988126</v>
+        <v>1.016626283774299</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.044879772371918</v>
+        <v>1.010996752661454</v>
       </c>
       <c r="D20">
-        <v>1.053995891063146</v>
+        <v>1.033256888467825</v>
       </c>
       <c r="E20">
-        <v>1.058475079342481</v>
+        <v>1.030257295524817</v>
       </c>
       <c r="F20">
-        <v>1.065493618319612</v>
+        <v>1.036962463093689</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047192576265809</v>
+        <v>1.054447346107315</v>
       </c>
       <c r="J20">
-        <v>1.051016680397868</v>
+        <v>1.03811025189612</v>
       </c>
       <c r="K20">
-        <v>1.057307742857001</v>
+        <v>1.046739120181745</v>
       </c>
       <c r="L20">
-        <v>1.061771934809929</v>
+        <v>1.043788183957117</v>
       </c>
       <c r="M20">
-        <v>1.068767253833437</v>
+        <v>1.050385084687472</v>
       </c>
       <c r="N20">
-        <v>1.020842354584756</v>
+        <v>1.016319717074456</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.043891649621541</v>
+        <v>1.005850310773221</v>
       </c>
       <c r="D21">
-        <v>1.053189934128249</v>
+        <v>1.02920863471482</v>
       </c>
       <c r="E21">
-        <v>1.05752910340569</v>
+        <v>1.025669934104621</v>
       </c>
       <c r="F21">
-        <v>1.06451429560939</v>
+        <v>1.032217555208404</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046903862198246</v>
+        <v>1.052554907049392</v>
       </c>
       <c r="J21">
-        <v>1.050421129216883</v>
+        <v>1.035105453062318</v>
       </c>
       <c r="K21">
-        <v>1.056707251287056</v>
+        <v>1.0436569938769</v>
       </c>
       <c r="L21">
-        <v>1.061030919195546</v>
+        <v>1.040180772369827</v>
       </c>
       <c r="M21">
-        <v>1.067991449858484</v>
+        <v>1.046613225421865</v>
       </c>
       <c r="N21">
-        <v>1.0206422604274</v>
+        <v>1.015304707206397</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.043271040457426</v>
+        <v>1.002544150306921</v>
       </c>
       <c r="D22">
-        <v>1.052683737206308</v>
+        <v>1.026612101468621</v>
       </c>
       <c r="E22">
-        <v>1.056935354695688</v>
+        <v>1.022729837477173</v>
       </c>
       <c r="F22">
-        <v>1.063899609652498</v>
+        <v>1.029176353204244</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046721241097659</v>
+        <v>1.051329536325175</v>
       </c>
       <c r="J22">
-        <v>1.050046626740025</v>
+        <v>1.033173082639759</v>
       </c>
       <c r="K22">
-        <v>1.056329509038512</v>
+        <v>1.041674180592809</v>
       </c>
       <c r="L22">
-        <v>1.060565337285217</v>
+        <v>1.037864071034244</v>
       </c>
       <c r="M22">
-        <v>1.067504030429796</v>
+        <v>1.044191162894382</v>
       </c>
       <c r="N22">
-        <v>1.020516390145042</v>
+        <v>1.014651941142916</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.043599973809956</v>
+        <v>1.00430368549564</v>
       </c>
       <c r="D23">
-        <v>1.052952030010497</v>
+        <v>1.027993564723088</v>
       </c>
       <c r="E23">
-        <v>1.05725001448562</v>
+        <v>1.024293887935836</v>
       </c>
       <c r="F23">
-        <v>1.064225365889819</v>
+        <v>1.030794201530074</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046818155555677</v>
+        <v>1.051982570072992</v>
       </c>
       <c r="J23">
-        <v>1.050245162488127</v>
+        <v>1.034201667224224</v>
       </c>
       <c r="K23">
-        <v>1.056529774882516</v>
+        <v>1.042729680042459</v>
       </c>
       <c r="L23">
-        <v>1.060812119877681</v>
+        <v>1.039096930764551</v>
       </c>
       <c r="M23">
-        <v>1.067762386132666</v>
+        <v>1.045480067953889</v>
       </c>
       <c r="N23">
-        <v>1.020583122199759</v>
+        <v>1.014999403535587</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.044896349511622</v>
+        <v>1.011081884714662</v>
       </c>
       <c r="D24">
-        <v>1.054009412072065</v>
+        <v>1.033323918846013</v>
       </c>
       <c r="E24">
-        <v>1.058490955983554</v>
+        <v>1.030333290665478</v>
       </c>
       <c r="F24">
-        <v>1.065510054515088</v>
+        <v>1.037041066017396</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047197397976757</v>
+        <v>1.054478487209346</v>
       </c>
       <c r="J24">
-        <v>1.051026663859911</v>
+        <v>1.038159920395628</v>
       </c>
       <c r="K24">
-        <v>1.057317806875172</v>
+        <v>1.046790054442471</v>
       </c>
       <c r="L24">
-        <v>1.061784363422991</v>
+        <v>1.043847866961271</v>
       </c>
       <c r="M24">
-        <v>1.068780266270984</v>
+        <v>1.050447492427142</v>
       </c>
       <c r="N24">
-        <v>1.020845708086516</v>
+        <v>1.016336494327122</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.046403559387912</v>
+        <v>1.018660626271661</v>
       </c>
       <c r="D25">
-        <v>1.055238741112261</v>
+        <v>1.039299315712366</v>
       </c>
       <c r="E25">
-        <v>1.059935399508989</v>
+        <v>1.037113472058357</v>
       </c>
       <c r="F25">
-        <v>1.067005389640856</v>
+        <v>1.04405361578087</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.0476326945101</v>
+        <v>1.057227319286328</v>
       </c>
       <c r="J25">
-        <v>1.051933270346727</v>
+        <v>1.04257590201791</v>
       </c>
       <c r="K25">
-        <v>1.058231407460772</v>
+        <v>1.051316722744428</v>
       </c>
       <c r="L25">
-        <v>1.062913961112184</v>
+        <v>1.049161727372446</v>
       </c>
       <c r="M25">
-        <v>1.069962973919996</v>
+        <v>1.056004489342355</v>
       </c>
       <c r="N25">
-        <v>1.021150134462304</v>
+        <v>1.017828006683103</v>
       </c>
     </row>
   </sheetData>
